--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Dlk1-Notch4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Dlk1-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,10 +91,10 @@
     <t>Notch4</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>10.1578900221194</v>
+        <v>0.777907</v>
       </c>
       <c r="H2">
-        <v>10.1578900221194</v>
+        <v>2.333721</v>
       </c>
       <c r="I2">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458042</v>
       </c>
       <c r="J2">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458043</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.2873121431529</v>
+        <v>47.253984</v>
       </c>
       <c r="N2">
-        <v>46.2873121431529</v>
+        <v>141.761952</v>
       </c>
       <c r="O2">
-        <v>0.9049426252434795</v>
+        <v>0.8884015114449556</v>
       </c>
       <c r="P2">
-        <v>0.9049426252434795</v>
+        <v>0.8884015114449555</v>
       </c>
       <c r="Q2">
-        <v>470.181426169659</v>
+        <v>36.759204931488</v>
       </c>
       <c r="R2">
-        <v>470.181426169659</v>
+        <v>330.8328443833921</v>
       </c>
       <c r="S2">
-        <v>0.8922247464401987</v>
+        <v>0.06101311058586691</v>
       </c>
       <c r="T2">
-        <v>0.8922247464401987</v>
+        <v>0.06101311058586691</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>10.1578900221194</v>
+        <v>0.777907</v>
       </c>
       <c r="H3">
-        <v>10.1578900221194</v>
+        <v>2.333721</v>
       </c>
       <c r="I3">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458042</v>
       </c>
       <c r="J3">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458043</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.82043266310992</v>
+        <v>4.022517333333333</v>
       </c>
       <c r="N3">
-        <v>3.82043266310992</v>
+        <v>12.067552</v>
       </c>
       <c r="O3">
-        <v>0.07469157753270081</v>
+        <v>0.07562559124637756</v>
       </c>
       <c r="P3">
-        <v>0.07469157753270081</v>
+        <v>0.07562559124637755</v>
       </c>
       <c r="Q3">
-        <v>38.8075348287833</v>
+        <v>3.129144391221333</v>
       </c>
       <c r="R3">
-        <v>38.8075348287833</v>
+        <v>28.162299520992</v>
       </c>
       <c r="S3">
-        <v>0.07364187735924378</v>
+        <v>0.005193769373863442</v>
       </c>
       <c r="T3">
-        <v>0.07364187735924378</v>
+        <v>0.005193769373863442</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>10.1578900221194</v>
+        <v>0.777907</v>
       </c>
       <c r="H4">
-        <v>10.1578900221194</v>
+        <v>2.333721</v>
       </c>
       <c r="I4">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458042</v>
       </c>
       <c r="J4">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458043</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.729705316449215</v>
+        <v>0.7893206666666668</v>
       </c>
       <c r="N4">
-        <v>0.729705316449215</v>
+        <v>2.367962</v>
       </c>
       <c r="O4">
-        <v>0.01426614366112763</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="P4">
-        <v>0.01426614366112763</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="Q4">
-        <v>7.41226635304696</v>
+        <v>0.6140180718446667</v>
       </c>
       <c r="R4">
-        <v>7.41226635304696</v>
+        <v>5.526162646602002</v>
       </c>
       <c r="S4">
-        <v>0.01406565019224766</v>
+        <v>0.001019150239756367</v>
       </c>
       <c r="T4">
-        <v>0.01406565019224766</v>
+        <v>0.001019150239756367</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>10.1578900221194</v>
+        <v>0.777907</v>
       </c>
       <c r="H5">
-        <v>10.1578900221194</v>
+        <v>2.333721</v>
       </c>
       <c r="I5">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458042</v>
       </c>
       <c r="J5">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458043</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.311993888392052</v>
+        <v>0.803095</v>
       </c>
       <c r="N5">
-        <v>0.311993888392052</v>
+        <v>2.409285</v>
       </c>
       <c r="O5">
-        <v>0.006099653562692117</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="P5">
-        <v>0.006099653562692117</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="Q5">
-        <v>3.169199605859859</v>
+        <v>0.624733222165</v>
       </c>
       <c r="R5">
-        <v>3.169199605859859</v>
+        <v>5.622598999485001</v>
       </c>
       <c r="S5">
-        <v>0.006013930277493295</v>
+        <v>0.001036935299380403</v>
       </c>
       <c r="T5">
-        <v>0.006013930277493295</v>
+        <v>0.001036935299380403</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.144791785605363</v>
+        <v>0.777907</v>
       </c>
       <c r="H6">
-        <v>0.144791785605363</v>
+        <v>2.333721</v>
       </c>
       <c r="I6">
-        <v>0.01405379573081649</v>
+        <v>0.06867740520458042</v>
       </c>
       <c r="J6">
-        <v>0.01405379573081649</v>
+        <v>0.06867740520458043</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.2873121431529</v>
+        <v>0.320979</v>
       </c>
       <c r="N6">
-        <v>46.2873121431529</v>
+        <v>0.9629369999999999</v>
       </c>
       <c r="O6">
-        <v>0.9049426252434795</v>
+        <v>0.006034585967229564</v>
       </c>
       <c r="P6">
-        <v>0.9049426252434795</v>
+        <v>0.006034585967229563</v>
       </c>
       <c r="Q6">
-        <v>6.70202257607991</v>
+        <v>0.249691810953</v>
       </c>
       <c r="R6">
-        <v>6.70202257607991</v>
+        <v>2.247226298577</v>
       </c>
       <c r="S6">
-        <v>0.01271787880328068</v>
+        <v>0.0004144397057132996</v>
       </c>
       <c r="T6">
-        <v>0.01271787880328068</v>
+        <v>0.0004144397057132997</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.144791785605363</v>
+        <v>10.322611</v>
       </c>
       <c r="H7">
-        <v>0.144791785605363</v>
+        <v>30.967833</v>
       </c>
       <c r="I7">
-        <v>0.01405379573081649</v>
+        <v>0.911330195532704</v>
       </c>
       <c r="J7">
-        <v>0.01405379573081649</v>
+        <v>0.911330195532704</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.82043266310992</v>
+        <v>47.253984</v>
       </c>
       <c r="N7">
-        <v>3.82043266310992</v>
+        <v>141.761952</v>
       </c>
       <c r="O7">
-        <v>0.07469157753270081</v>
+        <v>0.8884015114449556</v>
       </c>
       <c r="P7">
-        <v>0.07469157753270081</v>
+        <v>0.8884015114449555</v>
       </c>
       <c r="Q7">
-        <v>0.5531672670767375</v>
+        <v>487.784495032224</v>
       </c>
       <c r="R7">
-        <v>0.5531672670767375</v>
+        <v>4390.060455290016</v>
       </c>
       <c r="S7">
-        <v>0.00104970017345702</v>
+        <v>0.8096271231366812</v>
       </c>
       <c r="T7">
-        <v>0.00104970017345702</v>
+        <v>0.8096271231366811</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.144791785605363</v>
+        <v>10.322611</v>
       </c>
       <c r="H8">
-        <v>0.144791785605363</v>
+        <v>30.967833</v>
       </c>
       <c r="I8">
-        <v>0.01405379573081649</v>
+        <v>0.911330195532704</v>
       </c>
       <c r="J8">
-        <v>0.01405379573081649</v>
+        <v>0.911330195532704</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.729705316449215</v>
+        <v>4.022517333333333</v>
       </c>
       <c r="N8">
-        <v>0.729705316449215</v>
+        <v>12.067552</v>
       </c>
       <c r="O8">
-        <v>0.01426614366112763</v>
+        <v>0.07562559124637756</v>
       </c>
       <c r="P8">
-        <v>0.01426614366112763</v>
+        <v>0.07562559124637755</v>
       </c>
       <c r="Q8">
-        <v>0.1056553357344083</v>
+        <v>41.52288167275733</v>
       </c>
       <c r="R8">
-        <v>0.1056553357344083</v>
+        <v>373.7059350548159</v>
       </c>
       <c r="S8">
-        <v>0.0002004934688799702</v>
+        <v>0.06891988485783761</v>
       </c>
       <c r="T8">
-        <v>0.0002004934688799702</v>
+        <v>0.06891988485783759</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,495 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10.322611</v>
+      </c>
+      <c r="H9">
+        <v>30.967833</v>
+      </c>
+      <c r="I9">
+        <v>0.911330195532704</v>
+      </c>
+      <c r="J9">
+        <v>0.911330195532704</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.7893206666666668</v>
+      </c>
+      <c r="N9">
+        <v>2.367962</v>
+      </c>
+      <c r="O9">
+        <v>0.01483967305870774</v>
+      </c>
+      <c r="P9">
+        <v>0.01483967305870774</v>
+      </c>
+      <c r="Q9">
+        <v>8.147850196260668</v>
+      </c>
+      <c r="R9">
+        <v>73.33065176634601</v>
+      </c>
+      <c r="S9">
+        <v>0.01352384215023353</v>
+      </c>
+      <c r="T9">
+        <v>0.01352384215023352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>10.322611</v>
+      </c>
+      <c r="H10">
+        <v>30.967833</v>
+      </c>
+      <c r="I10">
+        <v>0.911330195532704</v>
+      </c>
+      <c r="J10">
+        <v>0.911330195532704</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.803095</v>
+      </c>
+      <c r="N10">
+        <v>2.409285</v>
+      </c>
+      <c r="O10">
+        <v>0.01509863828272948</v>
+      </c>
+      <c r="P10">
+        <v>0.01509863828272948</v>
+      </c>
+      <c r="Q10">
+        <v>8.290037281045</v>
+      </c>
+      <c r="R10">
+        <v>74.61033552940501</v>
+      </c>
+      <c r="S10">
+        <v>0.01375984497847743</v>
+      </c>
+      <c r="T10">
+        <v>0.01375984497847743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>10.322611</v>
+      </c>
+      <c r="H11">
+        <v>30.967833</v>
+      </c>
+      <c r="I11">
+        <v>0.911330195532704</v>
+      </c>
+      <c r="J11">
+        <v>0.911330195532704</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.320979</v>
+      </c>
+      <c r="N11">
+        <v>0.9629369999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.006034585967229564</v>
+      </c>
+      <c r="P11">
+        <v>0.006034585967229563</v>
+      </c>
+      <c r="Q11">
+        <v>3.313341356168999</v>
+      </c>
+      <c r="R11">
+        <v>29.820072205521</v>
+      </c>
+      <c r="S11">
+        <v>0.005499500409474231</v>
+      </c>
+      <c r="T11">
+        <v>0.00549950040947423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.2264533333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.6793600000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.01999239926271553</v>
+      </c>
+      <c r="J12">
+        <v>0.01999239926271554</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>47.253984</v>
+      </c>
+      <c r="N12">
+        <v>141.761952</v>
+      </c>
+      <c r="O12">
+        <v>0.8884015114449556</v>
+      </c>
+      <c r="P12">
+        <v>0.8884015114449555</v>
+      </c>
+      <c r="Q12">
+        <v>10.70082219008</v>
+      </c>
+      <c r="R12">
+        <v>96.30739971072002</v>
+      </c>
+      <c r="S12">
+        <v>0.0177612777224075</v>
+      </c>
+      <c r="T12">
+        <v>0.0177612777224075</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.144791785605363</v>
-      </c>
-      <c r="H9">
-        <v>0.144791785605363</v>
-      </c>
-      <c r="I9">
-        <v>0.01405379573081649</v>
-      </c>
-      <c r="J9">
-        <v>0.01405379573081649</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.311993888392052</v>
-      </c>
-      <c r="N9">
-        <v>0.311993888392052</v>
-      </c>
-      <c r="O9">
-        <v>0.006099653562692117</v>
-      </c>
-      <c r="P9">
-        <v>0.006099653562692117</v>
-      </c>
-      <c r="Q9">
-        <v>0.04517415219824554</v>
-      </c>
-      <c r="R9">
-        <v>0.04517415219824554</v>
-      </c>
-      <c r="S9">
-        <v>8.572328519882207E-05</v>
-      </c>
-      <c r="T9">
-        <v>8.572328519882207E-05</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2264533333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.6793600000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.01999239926271553</v>
+      </c>
+      <c r="J13">
+        <v>0.01999239926271554</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.022517333333333</v>
+      </c>
+      <c r="N13">
+        <v>12.067552</v>
+      </c>
+      <c r="O13">
+        <v>0.07562559124637756</v>
+      </c>
+      <c r="P13">
+        <v>0.07562559124637755</v>
+      </c>
+      <c r="Q13">
+        <v>0.9109124585244445</v>
+      </c>
+      <c r="R13">
+        <v>8.19821212672</v>
+      </c>
+      <c r="S13">
+        <v>0.001511937014676505</v>
+      </c>
+      <c r="T13">
+        <v>0.001511937014676505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2264533333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.6793600000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.01999239926271553</v>
+      </c>
+      <c r="J14">
+        <v>0.01999239926271554</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7893206666666668</v>
+      </c>
+      <c r="N14">
+        <v>2.367962</v>
+      </c>
+      <c r="O14">
+        <v>0.01483967305870774</v>
+      </c>
+      <c r="P14">
+        <v>0.01483967305870774</v>
+      </c>
+      <c r="Q14">
+        <v>0.1787442960355556</v>
+      </c>
+      <c r="R14">
+        <v>1.60869866432</v>
+      </c>
+      <c r="S14">
+        <v>0.0002966806687178483</v>
+      </c>
+      <c r="T14">
+        <v>0.0002966806687178483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.2264533333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.6793600000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.01999239926271553</v>
+      </c>
+      <c r="J15">
+        <v>0.01999239926271554</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.803095</v>
+      </c>
+      <c r="N15">
+        <v>2.409285</v>
+      </c>
+      <c r="O15">
+        <v>0.01509863828272948</v>
+      </c>
+      <c r="P15">
+        <v>0.01509863828272948</v>
+      </c>
+      <c r="Q15">
+        <v>0.1818635397333334</v>
+      </c>
+      <c r="R15">
+        <v>1.6367718576</v>
+      </c>
+      <c r="S15">
+        <v>0.0003018580048716495</v>
+      </c>
+      <c r="T15">
+        <v>0.0003018580048716495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2264533333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.6793600000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.01999239926271553</v>
+      </c>
+      <c r="J16">
+        <v>0.01999239926271554</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.320979</v>
+      </c>
+      <c r="N16">
+        <v>0.9629369999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.006034585967229564</v>
+      </c>
+      <c r="P16">
+        <v>0.006034585967229563</v>
+      </c>
+      <c r="Q16">
+        <v>0.07268676448</v>
+      </c>
+      <c r="R16">
+        <v>0.65418088032</v>
+      </c>
+      <c r="S16">
+        <v>0.0001206458520420338</v>
+      </c>
+      <c r="T16">
+        <v>0.0001206458520420338</v>
       </c>
     </row>
   </sheetData>
